--- a/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Sprint1.xlsx
+++ b/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Sprint1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casca\Desktop\Capstone_1\SourceCode\craft-village-pollution-monitor-system\Documents\9. Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Document\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69F13D0-1265-4AC2-B3E1-29A225D28D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52354637-FE8E-4A3C-9951-DBDBEC73C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-12825" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{0113128A-9EC0-4547-8069-210E5A7DE45A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0113128A-9EC0-4547-8069-210E5A7DE45A}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Mobile" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
   <si>
     <t>Module Code</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>TC01</t>
-  </si>
-  <si>
-    <t>Check Login</t>
   </si>
   <si>
     <t>TC02</t>
@@ -164,9 +161,6 @@
   </si>
   <si>
     <t>Sign up on Mobile</t>
-  </si>
-  <si>
-    <t>Check sign up</t>
   </si>
   <si>
     <t>1. Enter the correct username
@@ -211,14 +205,6 @@
   <si>
     <t>1. Enter the correct username
 2. Enter the correct password
-3. Leave the correct first &amp; last name
-4. Leave the phone number blank
-5. Enter the correct email address 
-6. Click the "Đăng ký" button</t>
-  </si>
-  <si>
-    <t>1. Enter the correct username
-2. Enter the correct password
 3. Enter the correct first &amp; last name
 4. Enter the correct phone number
 5. Enter the invalid email address 
@@ -273,11 +259,6 @@
     <t>Display Error Message "Không tồn tại tài khoản hoặc nhập sai mật khẩu"</t>
   </si>
   <si>
-    <t>1. Enter the unregistered  username
-2. Enter the wrong password
-3. Click the "Đăng nhập" button</t>
-  </si>
-  <si>
     <t>1. Enter the incorrect username format
 2. Enter the wrong password
 3. Click the "Đăng nhập" button</t>
@@ -302,6 +283,67 @@
   </si>
   <si>
     <t>Change application language to English</t>
+  </si>
+  <si>
+    <t>Declare empty password</t>
+  </si>
+  <si>
+    <t>Declare empty username</t>
+  </si>
+  <si>
+    <t>Declare empty username and password</t>
+  </si>
+  <si>
+    <t>Declare wrong password</t>
+  </si>
+  <si>
+    <t>1. Enter the unregistered username
+2. Enter the wrong password
+3. Click the "Đăng nhập" button</t>
+  </si>
+  <si>
+    <t>Declare unregistered username and wrong password</t>
+  </si>
+  <si>
+    <t>Declare incorrect username</t>
+  </si>
+  <si>
+    <t>Declare a space in username and password</t>
+  </si>
+  <si>
+    <t>Declare incorrect password password</t>
+  </si>
+  <si>
+    <t>Check Login success</t>
+  </si>
+  <si>
+    <t>Declare username has been deleted</t>
+  </si>
+  <si>
+    <t>Check sign up success</t>
+  </si>
+  <si>
+    <t>Declare invalid password</t>
+  </si>
+  <si>
+    <t>Declare wrong phone number</t>
+  </si>
+  <si>
+    <t>1. Enter the correct username
+2. Enter the correct password
+3. Leave the correct first &amp; last name blank
+4. Leave the phone number blank
+5. Enter the correct email address 
+6. Click the "Đăng ký" button</t>
+  </si>
+  <si>
+    <t>Declare empty email address, first and last name</t>
+  </si>
+  <si>
+    <t>Declare invalid email address</t>
+  </si>
+  <si>
+    <t>Declare empty email address</t>
   </si>
 </sst>
 </file>
@@ -759,50 +801,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A134540D-A172-4176-A5C8-205EE77F683B}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="6" customWidth="1"/>
-    <col min="4" max="5" width="75.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="6"/>
+    <col min="4" max="5" width="75.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>13</v>
       </c>
@@ -824,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -841,280 +883,280 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>3</v>
@@ -1139,51 +1181,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5041EB-6296-46F1-A6BE-46A31023492B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="96.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="47.7109375" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="96.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="47.6640625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>9</v>
       </c>
@@ -1205,7 +1247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1222,211 +1264,211 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="117.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>3</v>
@@ -1450,49 +1492,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D198B9-12FE-4D44-940C-67B74BA8B055}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1517,12 +1559,12 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1539,27 +1581,27 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>3</v>
